--- a/Documents/Project Tasks and Timeline.xlsx
+++ b/Documents/Project Tasks and Timeline.xlsx
@@ -1,32 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24422"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="426" documentId="11_56B225B0B55130E013FFDB2C1BD303B702025F59" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44170ACE-74B4-4E90-A5E8-4B318F312891}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>App Tasks</t>
   </si>
@@ -191,13 +179,25 @@
   </si>
   <si>
     <t>Start Final User Test (Require 1 week)</t>
+  </si>
+  <si>
+    <t>Buiding App install package</t>
+  </si>
+  <si>
+    <t>Quality &amp; Performance testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +234,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,9 +581,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -264,7 +836,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -279,36 +863,68 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -566,54 +1182,54 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="45.75" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.1296296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.75" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="13.5">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:9">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.5">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -623,20 +1239,20 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="5">
         <v>44423</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>44430</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13.5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -646,20 +1262,20 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="5">
         <v>44423</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>44430</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -669,146 +1285,146 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="5">
         <v>44436</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>44439</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13.5">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="5">
         <v>44418</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>44458</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1">
+    <row r="8" ht="16.5" customHeight="1" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="5">
         <v>44436</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>44458</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13.5">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="5">
         <v>44418</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>44458</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1">
+    <row r="10" ht="13.5" customHeight="1" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>5</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="5">
         <v>44423</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>44430</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="5">
         <v>44436</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>44439</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13.5">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="5">
         <v>44436</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>44439</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
@@ -818,17 +1434,20 @@
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="5">
         <v>44436</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>44479</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="13.5">
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
@@ -838,13 +1457,13 @@
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="5">
         <v>44436</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>44479</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -854,53 +1473,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13.5">
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.5">
+    <row r="15" spans="6:6">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1" spans="1:6">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="5">
         <v>44436</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="6">
         <v>44444</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13.5">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2</v>
       </c>
@@ -910,19 +1529,19 @@
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="5">
         <v>44436</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>44444</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.5">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>3</v>
       </c>
@@ -932,17 +1551,17 @@
       <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="5">
         <v>44444</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>44458</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.5">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>4</v>
       </c>
@@ -952,17 +1571,17 @@
       <c r="C20" s="1">
         <v>8</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="5">
         <v>44444</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>44458</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.5">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>5</v>
       </c>
@@ -972,118 +1591,117 @@
       <c r="C21" s="1">
         <v>9</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="5">
         <v>44444</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>44458</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="13.5"/>
-    <row r="23" spans="1:8" ht="13.5">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="2:7">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="13.5">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="5">
         <v>44418</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>44421</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="13.5">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="5">
         <v>44418</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>44430</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="13.5">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="5">
         <v>44418</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>44430</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.5">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="5">
         <v>44418</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>44430</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="13.5">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1093,20 +1711,20 @@
       <c r="C28" s="1">
         <v>10</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="5">
         <v>44418</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>44430</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="13.5">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1116,20 +1734,20 @@
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="5">
         <v>44418</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>44430</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="13.5">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>7</v>
       </c>
@@ -1139,20 +1757,20 @@
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="5">
         <v>44418</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>44430</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="13.5">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>8</v>
       </c>
@@ -1162,112 +1780,137 @@
       <c r="C31" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="5">
         <v>44436</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>44439</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="13.5">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="5">
         <v>44444</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>44472</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="5">
         <v>44444</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>44472</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="5">
         <v>44444</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>44472</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="5">
         <v>44451</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>44472</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="5">
         <v>44472</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>44479</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5">
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5"/>
-    <row r="39" spans="1:6" ht="13.5"/>
-    <row r="40" spans="1:6" ht="13.5"/>
-    <row r="41" spans="1:6" ht="13.5"/>
-    <row r="47" spans="1:6" ht="13.5"/>
-    <row r="48" spans="1:6" ht="13.5"/>
-    <row r="49" ht="13.5"/>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="5">
+        <v>44451</v>
+      </c>
+      <c r="F37" s="6">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="5">
+        <v>44451</v>
+      </c>
+      <c r="F38" s="6">
+        <v>44472</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>